--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЭЭ по 17.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,22 +702,73 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6185</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>274</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>1230.26</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>1706.54</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1706.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2987</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>196</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>476.28000000000003</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
-        <f>SUM(G2:G7)</f>
-        <v>4159.9600000000009</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUM(H2:H7)</f>
-        <v>4159.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G10" s="11">
+        <f>SUM(G2:G9)</f>
+        <v>5866.5000000000009</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H9)</f>
+        <v>5866.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +662,7 @@
         <v>5911</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" ref="D6:D11" si="2">SUM(C6,-C4)</f>
         <v>333</v>
       </c>
       <c r="E6" s="5">
@@ -688,7 +689,7 @@
         <v>2791</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="E7" s="2">
@@ -712,14 +713,14 @@
         <v>6185</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
         <v>1230.26</v>
       </c>
       <c r="G8" s="11">
@@ -739,36 +740,187 @@
         <v>2987</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>476.28000000000003</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6336</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>711.21</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>1027.4100000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1027.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3111</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="4"/>
+        <v>316.2</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F15" si="5">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44068</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>221</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="6">SUM(C14,-C12)</f>
+        <v>221</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="5"/>
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1255.1100000000001</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1255.1099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>214.2</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>5866.5000000000009</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>5866.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>8149.02</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>8148.82</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>новый счетчик</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,19 +817,19 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="8" t="e">
         <f t="shared" ref="F12:F15" si="5">D12*E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="11" t="e">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
@@ -908,9 +911,9 @@
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="11" t="e">
         <f>SUM(G2:G15)</f>
-        <v>8149.02</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H16" s="11">
         <f>SUM(H2:H15)</f>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,13 +823,12 @@
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" ref="F12:F15" si="5">D12*E12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="11" t="e">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="H12" s="15">
         <v>0</v>
@@ -850,7 +849,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F13:F15" si="5">D13*E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="13"/>
@@ -908,22 +907,73 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="6">
+        <v>44183</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>486</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
+        <v>265</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>1248.1500000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1521</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>191</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="8"/>
+        <v>272.84999999999997</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11" t="e">
+      <c r="G18" s="11">
         <f>SUM(G2:G15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="11">
+        <v>8149.02</v>
+      </c>
+      <c r="H18" s="11">
         <f>SUM(H2:H15)</f>
         <v>8148.82</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -958,22 +958,73 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
+      <c r="A18" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>932</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
+        <v>446</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>2100.66</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>2501.0099999999998</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2501.0100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>348</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>157</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="10"/>
+        <v>400.34999999999997</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <f>SUM(G2:G15)</f>
         <v>8149.02</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H2:H15)</f>
         <v>8148.82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1009,22 +1009,73 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="6">
+        <v>44378</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1123</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
+        <v>191</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>899.61</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1057.71</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1057.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>410</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="12"/>
+        <v>158.1</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <f>SUM(G2:G15)</f>
         <v>8149.02</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <f>SUM(H2:H15)</f>
         <v>8148.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/26ee.xlsx
+++ b/sputnik/personal/ee/26ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,9 +215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,112 +572,130 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43733</v>
+        <v>44049</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>5234</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUM(F2,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2330</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F5" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43847</v>
+        <v>44068</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>5578</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>344</v>
+        <f t="shared" ref="D4:D5" si="1">SUM(C4,-C2)</f>
+        <v>221</v>
       </c>
       <c r="E4" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
-        <v>1544.5600000000002</v>
+        <f t="shared" si="0"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>2159.3500000000004</v>
+        <v>1255.1100000000001</v>
       </c>
       <c r="H4" s="10">
-        <v>2159.35</v>
+        <v>1255.1099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>2583</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>614.79000000000008</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+        <v>214.2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43896</v>
+        <v>44183</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>5911</v>
+        <v>486</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D11" si="2">SUM(C6,-C4)</f>
-        <v>333</v>
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>265</v>
       </c>
       <c r="E6" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>1495.17</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>2000.6100000000001</v>
+        <v>1521</v>
       </c>
       <c r="H6" s="10">
-        <v>2000.61</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,49 +704,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2791</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
-        <v>505.44000000000005</v>
+        <f t="shared" si="3"/>
+        <v>272.84999999999997</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43955</v>
+        <v>44343</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>6185</v>
+        <v>932</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>274</v>
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>446</v>
       </c>
       <c r="E8" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>1230.26</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>2100.66</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1706.54</v>
+        <v>2501.0099999999998</v>
       </c>
       <c r="H8" s="10">
-        <v>1706.54</v>
+        <v>2501.0100000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,49 +755,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>2987</v>
+        <v>348</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>196</v>
+        <f t="shared" si="4"/>
+        <v>157</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>476.28000000000003</v>
+        <f t="shared" si="5"/>
+        <v>400.34999999999997</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44049</v>
+        <v>44378</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>6336</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>151</v>
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>191</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>711.21</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>899.61</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1027.4100000000001</v>
+        <v>1057.71</v>
       </c>
       <c r="H10" s="10">
-        <v>1027.21</v>
+        <v>1057.71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,47 +806,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>3111</v>
+        <v>410</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>124</v>
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="4"/>
-        <v>316.2</v>
+        <f t="shared" si="7"/>
+        <v>158.1</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44049</v>
+        <v>44455</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>1290</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>167</v>
       </c>
       <c r="E12" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>828.32</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
+        <v>1032</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,242 +857,39 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" ref="F13:F15" si="5">D13*E13</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>203.68</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44068</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>221</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="6">SUM(C14,-C12)</f>
-        <v>221</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="5"/>
-        <v>1040.9100000000001</v>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>1255.1100000000001</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1255.1099999999999</v>
+        <f>SUM(G2:G13)</f>
+        <v>7366.83</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>7366.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>84</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="5"/>
-        <v>214.2</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44183</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>486</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
-        <v>265</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>1248.1500000000001</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>1521</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>191</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="8"/>
-        <v>272.84999999999997</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44343</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>932</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
-        <v>446</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>2100.66</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>2501.0099999999998</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2501.0100000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>348</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="9"/>
-        <v>157</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="10"/>
-        <v>400.34999999999997</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44378</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1123</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
-        <v>191</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
-        <v>899.61</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>1057.71</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1057.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>410</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="11"/>
-        <v>62</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="12"/>
-        <v>158.1</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>8149.02</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>8148.82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
